--- a/AO_Portfoliomonitor.xlsx
+++ b/AO_Portfoliomonitor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragomir Pogdanovic\Documents\Git\frontend\kanterzooi\JacobsCreepers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MWitt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B608DCCE-923A-47EA-A65E-4E6B6CA1665C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9CAC3F-29D8-4066-9840-C0093CD8CFC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -131,16 +131,16 @@
     <t>datum</t>
   </si>
   <si>
-    <t>Kanter Rosbag</t>
+    <t>Maarten Witteman</t>
   </si>
   <si>
     <t xml:space="preserve"> +</t>
   </si>
   <si>
-    <t xml:space="preserve">  +</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ++</t>
   </si>
 </sst>
 </file>
@@ -325,7 +325,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -660,38 +660,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="59.140625" customWidth="1"/>
-    <col min="3" max="10" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="59.109375" customWidth="1"/>
+    <col min="3" max="10" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="13" t="s">
         <v>29</v>
       </c>
@@ -718,7 +718,7 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
@@ -731,7 +731,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>31</v>
       </c>
@@ -744,7 +744,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -780,7 +780,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -788,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -798,7 +798,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -806,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -816,7 +816,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -824,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -834,7 +834,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f>+A12+1</f>
         <v>6</v>
@@ -843,7 +843,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -853,7 +853,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" ref="A14:A26" si="0">+A13+1</f>
         <v>7</v>
@@ -862,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -872,7 +872,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -881,7 +881,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -891,7 +891,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -910,7 +910,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -919,7 +919,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -929,7 +929,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -938,7 +938,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -948,7 +948,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -957,7 +957,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -967,7 +967,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -986,7 +986,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1005,7 +1005,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1014,7 +1014,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -1024,7 +1024,7 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1043,7 +1043,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1062,7 +1062,7 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1071,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1081,7 +1081,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1090,7 +1090,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
